--- a/biology/Biologie cellulaire et moléculaire/Récepteur_des_lipoprotéines/Récepteur_des_lipoprotéines.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_des_lipoprotéines/Récepteur_des_lipoprotéines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_des_lipoprot%C3%A9ines</t>
+          <t>Récepteur_des_lipoprotéines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteur des lipoprotéines, protéines liées aux récepteurs des lipoprotéines de basse densité (HGNC) or protéine liée au récepteur des lipoprotéines de faible densité (UniProt), abrégé LRP, sont un groupe de protéines.
 Ils comprennent:
